--- a/ML_DB.xlsx
+++ b/ML_DB.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="168">
   <si>
     <t>beach_id</t>
   </si>
@@ -243,12 +243,6 @@
     <t>log_id</t>
   </si>
   <si>
-    <t>survey_month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>mpa</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>day</t>
   </si>
   <si>
     <t>wind_dir</t>
@@ -989,7 +980,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1004,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2106,196 +2097,196 @@
         <v>69</v>
       </c>
       <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>116</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>117</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>118</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>119</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>121</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" t="s">
         <v>159</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA1" t="s">
         <v>160</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BB1" t="s">
         <v>161</v>
       </c>
-      <c r="AD1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="BC1" t="s">
         <v>162</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="BD1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG1" t="s">
         <v>145</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BH1" t="s">
         <v>146</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BI1" t="s">
         <v>147</v>
       </c>
-      <c r="BA1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>148</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>149</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>150</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>151</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>152</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>153</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>154</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>155</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
@@ -10669,7 +10660,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10682,37 +10673,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
-      </c>
-      <c r="I1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -11178,116 +11169,113 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="8" customWidth="1"/>
-    <col min="3" max="27" width="10.7109375" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="26" width="10.7109375" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E2" s="6" t="b">
         <v>1</v>
       </c>
@@ -11300,10 +11288,10 @@
       <c r="H2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="6" t="b">
@@ -11316,10 +11304,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="6" t="b">
         <v>1</v>
@@ -11328,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="6" t="b">
         <v>0</v>
@@ -11352,41 +11340,38 @@
         <v>0</v>
       </c>
       <c r="Z2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="1">
+        <v>44816</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="6" t="b">
@@ -11399,10 +11384,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="6" t="b">
         <v>1</v>
@@ -11411,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6" t="b">
         <v>0</v>
@@ -11435,48 +11420,45 @@
         <v>0</v>
       </c>
       <c r="Z3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="1">
+        <v>44641</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="K4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6" t="b">
         <v>0</v>
@@ -11485,13 +11467,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="Q4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="b">
         <v>0</v>
@@ -11518,48 +11500,45 @@
         <v>0</v>
       </c>
       <c r="Z4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="1">
+        <v>44815</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="K5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7" t="b">
         <v>0</v>
@@ -11568,13 +11547,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Q5" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7" t="b">
         <v>0</v>
@@ -11601,25 +11580,22 @@
         <v>0</v>
       </c>
       <c r="Z5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="1">
+        <v>44640</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="6" t="b">
         <v>1</v>
       </c>
@@ -11627,22 +11603,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
         <v>-1</v>
       </c>
+      <c r="J6" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="K6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="b">
         <v>0</v>
@@ -11684,48 +11660,45 @@
         <v>0</v>
       </c>
       <c r="Z6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="1">
+        <v>44814</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="D7" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
         <v>-1</v>
       </c>
+      <c r="J7" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7" t="b">
         <v>0</v>
@@ -11767,9 +11740,6 @@
         <v>0</v>
       </c>
       <c r="Z7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7" t="b">
         <v>1</v>
       </c>
     </row>

--- a/ML_DB.xlsx
+++ b/ML_DB.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="145">
   <si>
     <t>beach_id</t>
   </si>
@@ -9017,7 +9017,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -9027,12 +9027,11 @@
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -9046,31 +9045,28 @@
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9083,35 +9079,32 @@
       <c r="D2" s="9">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E2" s="1">
-        <v>44639</v>
+      <c r="E2">
+        <v>118.125</v>
       </c>
       <c r="F2">
-        <v>118.125</v>
+        <v>6.75</v>
       </c>
       <c r="G2">
-        <v>6.75</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>1.43</v>
       </c>
       <c r="J2">
-        <v>1.43</v>
+        <v>90</v>
       </c>
       <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="L2">
         <v>9</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9124,35 +9117,32 @@
       <c r="D3" s="9">
         <v>0.47013888888888888</v>
       </c>
-      <c r="E3" s="1">
-        <v>44640</v>
+      <c r="E3">
+        <v>135</v>
       </c>
       <c r="F3">
-        <v>135</v>
+        <v>4.25</v>
       </c>
       <c r="G3">
-        <v>4.25</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
-        <v>1.4</v>
+        <v>112.5</v>
       </c>
       <c r="K3">
-        <v>112.5</v>
-      </c>
-      <c r="L3">
         <v>13</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9165,35 +9155,32 @@
       <c r="D4" s="9">
         <v>0.49722222222222223</v>
       </c>
-      <c r="E4" s="1">
-        <v>44641</v>
+      <c r="E4">
+        <v>157.5</v>
       </c>
       <c r="F4">
-        <v>157.5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="H4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>1.03</v>
       </c>
       <c r="J4">
-        <v>1.03</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9206,35 +9193,32 @@
       <c r="D5" s="9">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E5" s="1">
-        <v>44727</v>
+      <c r="E5">
+        <v>157.5</v>
       </c>
       <c r="F5">
-        <v>157.5</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K5">
-        <v>135</v>
-      </c>
-      <c r="L5">
         <v>12</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9247,35 +9231,32 @@
       <c r="D6" s="9">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E6" s="1">
-        <v>44728</v>
+      <c r="E6">
+        <v>163.125</v>
       </c>
       <c r="F6">
-        <v>163.125</v>
+        <v>2.75</v>
       </c>
       <c r="G6">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="J6">
-        <v>1.2</v>
+        <v>135</v>
       </c>
       <c r="K6">
-        <v>135</v>
-      </c>
-      <c r="L6">
         <v>7.4</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9288,35 +9269,32 @@
       <c r="D7" s="9">
         <v>0.51666666666666672</v>
       </c>
-      <c r="E7" s="1">
-        <v>44729</v>
+      <c r="E7">
+        <v>168.75</v>
       </c>
       <c r="F7">
-        <v>168.75</v>
+        <v>4.25</v>
       </c>
       <c r="G7">
-        <v>4.25</v>
+        <v>0.2</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J7">
-        <v>1.1000000000000001</v>
+        <v>135</v>
       </c>
       <c r="K7">
-        <v>135</v>
-      </c>
-      <c r="L7">
         <v>7</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9329,35 +9307,32 @@
       <c r="D8" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E8" s="1">
-        <v>44814</v>
+      <c r="E8">
+        <v>157.5</v>
       </c>
       <c r="F8">
-        <v>157.5</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="J8">
-        <v>1.35</v>
+        <v>135</v>
       </c>
       <c r="K8">
-        <v>135</v>
-      </c>
-      <c r="L8">
         <v>8</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9370,35 +9345,32 @@
       <c r="D9" s="9">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E9" s="1">
-        <v>44815</v>
+      <c r="E9">
+        <v>135</v>
       </c>
       <c r="F9">
+        <v>8.5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>1.47</v>
+      </c>
+      <c r="J9">
         <v>135</v>
       </c>
-      <c r="G9">
-        <v>8.5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.1</v>
-      </c>
-      <c r="J9">
-        <v>1.47</v>
-      </c>
       <c r="K9">
-        <v>135</v>
-      </c>
-      <c r="L9">
         <v>8</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9411,35 +9383,32 @@
       <c r="D10" s="9">
         <v>0.46875</v>
       </c>
-      <c r="E10" s="1">
-        <v>44724</v>
+      <c r="E10">
+        <v>157.5</v>
       </c>
       <c r="F10">
-        <v>157.5</v>
+        <v>8.5</v>
       </c>
       <c r="G10">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I10">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="J10">
-        <v>1.2</v>
+        <v>135</v>
       </c>
       <c r="K10">
-        <v>135</v>
-      </c>
-      <c r="L10">
         <v>8</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9452,35 +9421,32 @@
       <c r="D11" s="9">
         <v>0.34097222222222223</v>
       </c>
-      <c r="E11" s="1">
-        <v>44916</v>
+      <c r="E11">
+        <v>90</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G11">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I11">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J11">
-        <v>1.1000000000000001</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>30</v>
-      </c>
-      <c r="L11">
         <v>14</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9493,35 +9459,32 @@
       <c r="D12" s="9">
         <v>0.34097222222222223</v>
       </c>
-      <c r="E12" s="1">
-        <v>44916</v>
+      <c r="E12">
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>90</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G12">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I12">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J12">
-        <v>1.1000000000000001</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>30</v>
-      </c>
-      <c r="L12">
         <v>14</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9534,33 +9497,30 @@
       <c r="D13" s="9">
         <v>0.37361111111111112</v>
       </c>
-      <c r="E13" s="1">
-        <v>44917</v>
+      <c r="E13">
+        <v>30</v>
       </c>
       <c r="F13">
+        <v>6.1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13">
         <v>30</v>
       </c>
-      <c r="G13">
-        <v>6.1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.3</v>
-      </c>
-      <c r="J13">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="K13">
-        <v>30</v>
-      </c>
-      <c r="L13">
         <v>13</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9569,116 +9529,113 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="15.85546875" style="8" customWidth="1"/>
-    <col min="4" max="27" width="10.7109375" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="15.85546875" style="8" customWidth="1"/>
+    <col min="3" max="26" width="10.7109375" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44639</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E2" s="6" t="b">
         <v>1</v>
       </c>
@@ -9691,10 +9648,10 @@
       <c r="H2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="6" t="b">
@@ -9707,10 +9664,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="6" t="b">
         <v>1</v>
@@ -9719,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="6" t="b">
         <v>0</v>
@@ -9743,41 +9700,38 @@
         <v>0</v>
       </c>
       <c r="Z2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44816</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="6" t="b">
@@ -9790,10 +9744,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="6" t="b">
         <v>1</v>
@@ -9802,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6" t="b">
         <v>0</v>
@@ -9826,48 +9780,45 @@
         <v>0</v>
       </c>
       <c r="Z3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44641</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="K4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6" t="b">
         <v>0</v>
@@ -9876,13 +9827,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="Q4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="b">
         <v>0</v>
@@ -9909,48 +9860,45 @@
         <v>0</v>
       </c>
       <c r="Z4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44815</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="K5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7" t="b">
         <v>0</v>
@@ -9959,13 +9907,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Q5" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7" t="b">
         <v>0</v>
@@ -9992,25 +9940,22 @@
         <v>0</v>
       </c>
       <c r="Z5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="6" t="b">
         <v>1</v>
       </c>
@@ -10018,22 +9963,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
         <v>-1</v>
       </c>
+      <c r="J6" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="K6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="b">
         <v>0</v>
@@ -10075,48 +10020,45 @@
         <v>0</v>
       </c>
       <c r="Z6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>44814</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
         <v>-1</v>
       </c>
+      <c r="J7" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="K7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7" t="b">
         <v>0</v>
@@ -10158,56 +10100,44 @@
         <v>0</v>
       </c>
       <c r="Z7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ML_DB.xlsx
+++ b/ML_DB.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\netapp1\homes\ramos\Profile\Eigene Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="14715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14415" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Beach" sheetId="2" r:id="rId1"/>
     <sheet name="SurveyDetails" sheetId="3" r:id="rId2"/>
     <sheet name="LitterData" sheetId="4" r:id="rId3"/>
-    <sheet name="WeatherData" sheetId="5" r:id="rId4"/>
+    <sheet name="Meteo_oceano" sheetId="5" r:id="rId4"/>
     <sheet name="BeachLog" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
   <si>
     <t>beach_id</t>
   </si>
@@ -174,9 +174,6 @@
     <t>scientific_literature</t>
   </si>
   <si>
-    <t>weather_id</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -463,13 +460,25 @@
   </si>
   <si>
     <t>ST03</t>
+  </si>
+  <si>
+    <t>sewage</t>
+  </si>
+  <si>
+    <t>tide_class</t>
+  </si>
+  <si>
+    <t>meso</t>
+  </si>
+  <si>
+    <t>meteo_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +497,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -527,6 +547,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,7 +1021,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -990,7 +1029,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1">
         <v>44639</v>
@@ -1001,7 +1040,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>44641</v>
@@ -1012,7 +1051,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1">
         <v>44640</v>
@@ -1023,7 +1062,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1">
         <v>44729</v>
@@ -1034,7 +1073,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1">
         <v>44728</v>
@@ -1045,7 +1084,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>44727</v>
@@ -1056,7 +1095,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1">
         <v>44816</v>
@@ -1067,7 +1106,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1">
         <v>44815</v>
@@ -1078,7 +1117,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1">
         <v>44814</v>
@@ -1089,7 +1128,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1">
         <v>44916</v>
@@ -1100,7 +1139,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1">
         <v>44916</v>
@@ -1111,7 +1150,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="3">
         <v>44917</v>
@@ -1160,7 +1199,7 @@
   <dimension ref="A1:BR37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,196 +1224,196 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>70</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>74</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE1" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB1" t="s">
         <v>115</v>
       </c>
-      <c r="AK1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH1" t="s">
         <v>100</v>
       </c>
-      <c r="BB1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>101</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>102</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>104</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>105</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>107</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>108</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>109</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>110</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
@@ -1382,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1594,10 +1633,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1806,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2018,10 +2057,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2230,10 +2269,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -2442,10 +2481,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -2654,10 +2693,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -2866,10 +2905,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -3078,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -3290,10 +3329,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -3502,10 +3541,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -3714,10 +3753,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -3926,10 +3965,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -4138,10 +4177,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -4350,10 +4389,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -4562,10 +4601,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -4774,10 +4813,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -4986,10 +5025,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -5198,10 +5237,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -5410,10 +5449,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -5622,10 +5661,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -5834,10 +5873,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -6046,10 +6085,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6258,10 +6297,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -6470,10 +6509,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -6682,10 +6721,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -6894,10 +6933,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
@@ -7106,10 +7145,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -7318,10 +7357,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -7530,10 +7569,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -7742,10 +7781,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -7954,10 +7993,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -8166,10 +8205,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -8378,10 +8417,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -8590,10 +8629,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -8802,10 +8841,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -9017,23 +9056,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -9042,36 +9083,39 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>11</v>
@@ -9091,25 +9135,28 @@
       <c r="H2">
         <v>0.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2">
         <v>1.43</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="N2" s="9"/>
+      <c r="M2" s="1"/>
       <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>23</v>
@@ -9129,25 +9176,28 @@
       <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3">
         <v>1.4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>112.5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="1"/>
       <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>17</v>
@@ -9167,25 +9217,28 @@
       <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4">
         <v>1.03</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>90</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="1"/>
       <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -9205,25 +9258,28 @@
       <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="I5" t="s">
+        <v>146</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>135</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>12</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="N5" s="9"/>
+      <c r="M5" s="1"/>
       <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>17</v>
@@ -9243,25 +9299,28 @@
       <c r="H6">
         <v>0.1</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6">
         <v>1.2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>135</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7.4</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="N6" s="9"/>
+      <c r="M6" s="1"/>
       <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -9281,25 +9340,28 @@
       <c r="H7">
         <v>0.1</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>135</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="1"/>
       <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
@@ -9319,25 +9381,28 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8">
         <v>1.35</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>135</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="N8" s="9"/>
+      <c r="M8" s="1"/>
       <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
@@ -9357,25 +9422,28 @@
       <c r="H9">
         <v>0.1</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9">
         <v>1.47</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>135</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="N9" s="9"/>
+      <c r="M9" s="1"/>
       <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>11</v>
@@ -9395,25 +9463,28 @@
       <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10">
         <v>1.2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>135</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="N10" s="9"/>
+      <c r="M10" s="1"/>
       <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>23</v>
@@ -9433,25 +9504,28 @@
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>30</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>14</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="N11" s="9"/>
+      <c r="M11" s="1"/>
       <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -9471,25 +9545,28 @@
       <c r="H12">
         <v>0.4</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>30</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="N12" s="9"/>
+      <c r="M12" s="1"/>
       <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>11</v>
@@ -9509,18 +9586,21 @@
       <c r="H13">
         <v>0.3</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>30</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>13</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="N13" s="9"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9529,21 +9609,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="8" customWidth="1"/>
-    <col min="3" max="26" width="10.7109375" style="8" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="27" width="10.7109375" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -9571,573 +9651,1065 @@
       <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6" t="b">
+      <c r="D2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6" t="b">
+      <c r="D3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="6" t="b">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7" t="b">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="6" t="b">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="D13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
         <v>-1</v>
       </c>
-      <c r="J7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7" t="b">
+      <c r="J13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
